--- a/biology/Botanique/Dorstenia/Dorstenia.xlsx
+++ b/biology/Botanique/Dorstenia/Dorstenia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dorstenia est un genre de plantes à fleursde la famille des Moraceae. Les espèces de ce genre sont des plantes succulentes.
 Le nom de ce genre est un hommage à Théodoric Dorsténius, un médecin allemand du XVIe siècle.
@@ -513,11 +525,13 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon ITIS      (5 oct. 2014)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon ITIS      (5 oct. 2014) :
 Dorstenia contrajerva L.
-Selon NCBI  (5 oct. 2014)[2] :
+Selon NCBI  (5 oct. 2014) :
 Dorstenia africana
 Dorstenia alta
 Dorstenia arifolia
@@ -555,334 +569,334 @@
 Dorstenia tayloriana
 Dorstenia turbinata
 Dorstenia variifolia
-Selon Tropicos                                           (5 oct. 2014)[3] :
+Selon Tropicos                                           (5 oct. 2014) :
 Dorstenia acangatara M.D.M. Vianna, Al. Santos, A.F.P. Machado, Mansano &amp; Romaniuc
-Dorstenia achtenii De Wild. = Dorstenia benguellensis Welw.[4]
+Dorstenia achtenii De Wild. = Dorstenia benguellensis Welw.
 Dorstenia africana (Baill.) C.C. Berg
 Dorstenia afromontana R.E. Fr.
 Dorstenia albertii Carauta, C. Valente &amp; Sucre
-Dorstenia alexiteria L. = Dorstenia contrajerva L.[5]
+Dorstenia alexiteria L. = Dorstenia contrajerva L.
 Dorstenia alta Engl.
-Dorstenia alternans Engl. = Dorstenia mannii var. alternans (Engl.) Hijman[6]
-Dorstenia amazonica Carauta, C. Valente &amp; Barth = Dorstenia brasiliensis Lam.[7]
-Dorstenia amboniensis De Wild. = Dorstenia tayloriana var. tayloriana Rendle[8]
-Dorstenia amoena A. Chev. = Dorstenia kameruniana Engl.[9]
-Dorstenia angusta Engl. = Dorstenia poinsettiifolia var. angusta (Engl.) Hijman &amp; C.C. Berg[10]
+Dorstenia alternans Engl. = Dorstenia mannii var. alternans (Engl.) Hijman
+Dorstenia amazonica Carauta, C. Valente &amp; Barth = Dorstenia brasiliensis Lam.
+Dorstenia amboniensis De Wild. = Dorstenia tayloriana var. tayloriana Rendle
+Dorstenia amoena A. Chev. = Dorstenia kameruniana Engl.
+Dorstenia angusta Engl. = Dorstenia poinsettiifolia var. angusta (Engl.) Hijman &amp; C.C. Berg
 Dorstenia angusticornis Engl.
 Dorstenia annua Friis &amp; Vollesen
-Dorstenia anthuriifolia S.F. Blake = Dorstenia bahiensis Fisch. &amp; C.A. Mey.[11]
+Dorstenia anthuriifolia S.F. Blake = Dorstenia bahiensis Fisch. &amp; C.A. Mey.
 Dorstenia appendiculata Miq.
-Dorstenia arabica Hemsl. = Dorstenia foetida Schweinf.[12]
-Dorstenia argentata Hook. f. = Dorstenia turnerifolia Fisch. &amp; C.A. Mey.[13]
+Dorstenia arabica Hemsl. = Dorstenia foetida Schweinf.
+Dorstenia argentata Hook. f. = Dorstenia turnerifolia Fisch. &amp; C.A. Mey.
 Dorstenia arifolia Lam.
 Dorstenia aristeguietae Cuatrec.
-Dorstenia asaroides Hook. = Dorstenia cayapia Vell.[14]
-Dorstenia aspera A. Chev. = Dorstenia turbinata Engl.[15]
-Dorstenia asperifolia Rossberg = Dorstenia caimitensis Urb.[16]
-Dorstenia asteriscus Engl. = Dorstenia ciliata Engl.[17]
+Dorstenia asaroides Hook. = Dorstenia cayapia Vell.
+Dorstenia aspera A. Chev. = Dorstenia turbinata Engl.
+Dorstenia asperifolia Rossberg = Dorstenia caimitensis Urb.
+Dorstenia asteriscus Engl. = Dorstenia ciliata Engl.
 Dorstenia astyanactis Aké Assi
 Dorstenia bahiensis Fisch. &amp; C.A. Mey.
 Dorstenia barnimiana Schweinf.
 Dorstenia barteri Bureau
-Dorstenia batesii Rendle = Dorstenia lujae var. batesii (Rendle) Hijman[18]
+Dorstenia batesii Rendle = Dorstenia lujae var. batesii (Rendle) Hijman
 Dorstenia belizensis C.C. Berg
 Dorstenia benguellensis Welw.
-Dorstenia bequaertii De Wild. = Dorstenia dinklagei var. bequaertii (De Wild.) Hijman[19]
+Dorstenia bequaertii De Wild. = Dorstenia dinklagei var. bequaertii (De Wild.) Hijman
 Dorstenia bergiana Hijman
 Dorstenia bicaudata Peter
-Dorstenia bicornis Schweinf. = Dorstenia psilurus Welw.[20]
-Dorstenia binzaensis De Wild. = Dorstenia dinklagei var. binzaensis (De Wild.) Hijman[21]
-Dorstenia boliviana C.C. Berg = Dorstenia peruviana C.C. Berg[22]
+Dorstenia bicornis Schweinf. = Dorstenia psilurus Welw.
+Dorstenia binzaensis De Wild. = Dorstenia dinklagei var. binzaensis (De Wild.) Hijman
+Dorstenia boliviana C.C. Berg = Dorstenia peruviana C.C. Berg
 Dorstenia bonijesu Carauta &amp; C. Valente
 Dorstenia bowmaniana Baker
 Dorstenia brasiliensis Lam.
-Dorstenia braunii Engl. = Dorstenia hildebrandtii var. hildebrandtii Engl. [23]
-Dorstenia brevifolia Peter = Dorstenia hildebrandtii var. hildebrandtii Engl. [24]
+Dorstenia braunii Engl. = Dorstenia hildebrandtii var. hildebrandtii Engl. 
+Dorstenia brevifolia Peter = Dorstenia hildebrandtii var. hildebrandtii Engl. 
 Dorstenia brevipetiolata C.C. Berg
-Dorstenia brieyi De Wild. = Dorstenia dinklagei var. brieyi (De Wild.) Hijman[25]
+Dorstenia brieyi De Wild. = Dorstenia dinklagei var. brieyi (De Wild.) Hijman
 Dorstenia brownii Rendle
-Dorstenia bryoniifolia Mart. = Dorstenia cayapia subsp. vitifolia (Gardner) C.C. Berg[26]
+Dorstenia bryoniifolia Mart. = Dorstenia cayapia subsp. vitifolia (Gardner) C.C. Berg
 Dorstenia buchananii Engl.
-Dorstenia buesgenii Engl. = Dorstenia turbinata Engl.[27]
+Dorstenia buesgenii Engl. = Dorstenia turbinata Engl.
 Dorstenia caatingae R.M. Castro
 Dorstenia caimitensis Urb.
-Dorstenia campanulata Hauman = Dorstenia benguellensis Welw.[28]
-Dorstenia capricorniana Carauta, C. Valente &amp; Sucre = Dorstenia ramosa subsp. dolichocaula (Pilg.) C.C. Berg[29]
+Dorstenia campanulata Hauman = Dorstenia benguellensis Welw.
+Dorstenia capricorniana Carauta, C. Valente &amp; Sucre = Dorstenia ramosa subsp. dolichocaula (Pilg.) C.C. Berg
 Dorstenia carautae C.C. Berg
-Dorstenia carnosula De Wild. = Dorstenia hildebrandtii var. hildebrandtii Engl. [30]
-Dorstenia caudata Engl. = Dorstenia buchananii var. buchananii Engl. [31]
-Dorstenia caulescens Vell. = Dorstenia urceolata Schott[32]
+Dorstenia carnosula De Wild. = Dorstenia hildebrandtii var. hildebrandtii Engl. 
+Dorstenia caudata Engl. = Dorstenia buchananii var. buchananii Engl. 
+Dorstenia caulescens Vell. = Dorstenia urceolata Schott
 Dorstenia cayapia Vell.
-Dorstenia ceratosanthes Lodd. = Dorstenia ramosa (Desv.) Carauta, C. Valente &amp; Sucre[33]
+Dorstenia ceratosanthes Lodd. = Dorstenia ramosa (Desv.) Carauta, C. Valente &amp; Sucre
 Dorstenia choconiana S. Watson
 Dorstenia christenhuszii M.W. Chase &amp; M.F. Fay
 Dorstenia ciliata Engl.
 Dorstenia colombiana Cuatrec.
 Dorstenia conceptionis Carauta
-Dorstenia confusa Britton = Dorstenia erythrandra C. Wright ex Griseb.[34]
+Dorstenia confusa Britton = Dorstenia erythrandra C. Wright ex Griseb.
 Dorstenia contensis Carauta &amp; C.C. Berg
 Dorstenia contrajerva L.
 Dorstenia convexa De Wild.
-Dorstenia cordata-acuminata Cufod. = Dorstenia choconiana S. Watson[35]
+Dorstenia cordata-acuminata Cufod. = Dorstenia choconiana S. Watson
 Dorstenia cordifolia Lam.
-Dorstenia crassipes C. Wright ex Griseb. = Dorstenia peltata Spreng.[36]
+Dorstenia crassipes C. Wright ex Griseb. = Dorstenia peltata Spreng.
 Dorstenia crenulata C. Wright ex Griseb.
-Dorstenia crispa Engl. = Dorstenia foetida Schweinf.[37]
-Dorstenia crispata S. Watson = Dorstenia drakena L.[38]
+Dorstenia crispa Engl. = Dorstenia foetida Schweinf.
+Dorstenia crispata S. Watson = Dorstenia drakena L.
 Dorstenia cuspidata Hochst. ex A. Rich.
-Dorstenia cyperus Vell. = Dorstenia arifolia Lam.[39]
-Dorstenia debeerstii De Wild. &amp; T. Durand = Dorstenia benguellensis Welw.[40]
-Dorstenia debilis Baill. = Dorstenia cuspidata var. humblotiana (Baill.) Leandri[41]
-Dorstenia denticulata Peter = Dorstenia hildebrandtii var. schlechteri (Engl.) Hijman[42]
-Dorstenia dinklagei Engl. = Dorstenia turbinata Engl.[43]
+Dorstenia cyperus Vell. = Dorstenia arifolia Lam.
+Dorstenia debeerstii De Wild. &amp; T. Durand = Dorstenia benguellensis Welw.
+Dorstenia debilis Baill. = Dorstenia cuspidata var. humblotiana (Baill.) Leandri
+Dorstenia denticulata Peter = Dorstenia hildebrandtii var. schlechteri (Engl.) Hijman
+Dorstenia dinklagei Engl. = Dorstenia turbinata Engl.
 Dorstenia dionga Engl.
 Dorstenia djettii Guillaumet
-Dorstenia dolichocaula Pilg. = Dorstenia ramosa subsp. dolichocaula (Pilg.) C.C. Berg[44]
-Dorstenia domingensis Urb. &amp; Ekman = Dorstenia erythrandra C. Wright ex Griseb.[45]
+Dorstenia dolichocaula Pilg. = Dorstenia ramosa subsp. dolichocaula (Pilg.) C.C. Berg
+Dorstenia domingensis Urb. &amp; Ekman = Dorstenia erythrandra C. Wright ex Griseb.
 Dorstenia dorstenioides (Engl.) Hijman &amp; C.C. Berg
 Dorstenia drakena L.
-Dorstenia edeensis Engl. = Dorstenia turbinata Engl.[46]
-Dorstenia ekmanii Urb. = Dorstenia nummularia Urb. &amp; Ekman[47]
+Dorstenia edeensis Engl. = Dorstenia turbinata Engl.
+Dorstenia ekmanii Urb. = Dorstenia nummularia Urb. &amp; Ekman
 Dorstenia elata Hook.
 Dorstenia ellenbeckiana Engl.
 Dorstenia elliptica Bureau
 Dorstenia embergeri Mangenot
-Dorstenia equatorialis Rendle = Dorstenia dinklagei var. brieyi De Wild.[48]
-Dorstenia erecta Vell. = Dorstenia hirta Desv.[49]
+Dorstenia equatorialis Rendle = Dorstenia dinklagei var. brieyi De Wild.
+Dorstenia erecta Vell. = Dorstenia hirta Desv.
 Dorstenia erythrandra C. Wright ex Griseb.
 Dorstenia excentrica Moric.
-Dorstenia faria Paiva = Dorstenia arifolia Lam.[50]
+Dorstenia faria Paiva = Dorstenia arifolia Lam.
 Dorstenia fawcettii Urb.
-Dorstenia ficifolia Fisch. &amp; C.A. Mey. = Dorstenia arifolia Lam.[51]
-Dorstenia ficus Vell. = Dorstenia ramosa (Desv.) Carauta, C. Valente &amp; Sucre[52]
-Dorstenia fiherenensis Leandri = Dorstenia cuspidata var. humblotiana (Baill.) Leandri[53]
-Dorstenia fischeri Bureau = Dorstenia arifolia Lam.[54]
+Dorstenia ficifolia Fisch. &amp; C.A. Mey. = Dorstenia arifolia Lam.
+Dorstenia ficus Vell. = Dorstenia ramosa (Desv.) Carauta, C. Valente &amp; Sucre
+Dorstenia fiherenensis Leandri = Dorstenia cuspidata var. humblotiana (Baill.) Leandri
+Dorstenia fischeri Bureau = Dorstenia arifolia Lam.
 Dorstenia flagellifera Urb. &amp; Ekman
-Dorstenia fluminensis Walp. = Dorstenia ramosa (Desv.) Carauta, C. Valente &amp; Sucre[55]
+Dorstenia fluminensis Walp. = Dorstenia ramosa (Desv.) Carauta, C. Valente &amp; Sucre
 Dorstenia foetida Schweinf.
-Dorstenia frutescens Engl. = Dorstenia elliptica Bureau[56]
-Dorstenia gabunensis Engl. = Dorstenia poinsettiifolia var. poinsettiifolia Engl.[57]
-Dorstenia gaussenii Troch.-Marq. &amp; Koechlin = Dorstenia dinklagei var. binzaensis (De Wild.) Hijman[58]
+Dorstenia frutescens Engl. = Dorstenia elliptica Bureau
+Dorstenia gabunensis Engl. = Dorstenia poinsettiifolia var. poinsettiifolia Engl.
+Dorstenia gaussenii Troch.-Marq. &amp; Koechlin = Dorstenia dinklagei var. binzaensis (De Wild.) Hijman
 Dorstenia gigas Schweinf. ex Balf. f.
-Dorstenia gilletii De Wild. = Dorstenia psilurus var. scabra Bureau[59]
+Dorstenia gilletii De Wild. = Dorstenia psilurus var. scabra Bureau
 Dorstenia goetzei Engl.
-Dorstenia goossensi De Wild. = Dorstenia yambuyaensis De Wild.[60]
-Dorstenia gourmaensis A. Chev. = Dorstenia cuspidata var. cuspidata Hochst. ex A. Rich.[61]
-Dorstenia gracilis Carauta, C. Valente &amp; Araujo = Dorstenia milaneziana Carauta, C. Valente &amp; Sucre[62]
+Dorstenia goossensi De Wild. = Dorstenia yambuyaensis De Wild.
+Dorstenia gourmaensis A. Chev. = Dorstenia cuspidata var. cuspidata Hochst. ex A. Rich.
+Dorstenia gracilis Carauta, C. Valente &amp; Araujo = Dorstenia milaneziana Carauta, C. Valente &amp; Sucre
 Dorstenia grazielae Carauta, C. Valente &amp; Sucre
 Dorstenia griffithiana Kurz
 Dorstenia gypsophila Lavranos
-Dorstenia haitensis Rossberg = Dorstenia fawcettii Urb.[63]
-Dorstenia harmsiana Engl. = Dorstenia ciliata Engl.[64]
-Dorstenia heringeri Carauta &amp; C. Valente = Dorstenia brasiliensis Lam.[65]
+Dorstenia haitensis Rossberg = Dorstenia fawcettii Urb.
+Dorstenia harmsiana Engl. = Dorstenia ciliata Engl.
+Dorstenia heringeri Carauta &amp; C. Valente = Dorstenia brasiliensis Lam.
 Dorstenia hildebrandtii Engl.
 Dorstenia hildegardis Carauta, C. Valente &amp; R. Barth
 Dorstenia hirta Desv.
-Dorstenia hispida Hook. = Dorstenia hirta Desv.[66]
-Dorstenia hockii De Wild. = Dorstenia benguellensis Welw.[67]
+Dorstenia hispida Hook. = Dorstenia hirta Desv.
+Dorstenia hockii De Wild. = Dorstenia benguellensis Welw.
 Dorstenia holstii Engl.
-Dorstenia holtziana Engl. = Dorstenia zanzibarica Oliv.[68]
-Dorstenia homblei De Wild. = Dorstenia benguellensis Welw.[69]
-Dorstenia hotteana Urb. &amp; Ekman = Dorstenia flagellifera Urb. &amp; Ekman[70]
-Dorstenia houstonii L. = Dorstenia contrajerva L.[71]
-Dorstenia howardii León = Dorstenia erythrandra C. Wright ex Griseb.[72]
-Dorstenia humblotiana Baill. = Dorstenia cuspidata var. humblotiana (Baill.) Leandri[73]
+Dorstenia holtziana Engl. = Dorstenia zanzibarica Oliv.
+Dorstenia homblei De Wild. = Dorstenia benguellensis Welw.
+Dorstenia hotteana Urb. &amp; Ekman = Dorstenia flagellifera Urb. &amp; Ekman
+Dorstenia houstonii L. = Dorstenia contrajerva L.
+Dorstenia howardii León = Dorstenia erythrandra C. Wright ex Griseb.
+Dorstenia humblotiana Baill. = Dorstenia cuspidata var. humblotiana (Baill.) Leandri
 Dorstenia hydrocotyle Mart. ex Miq.
 Dorstenia indica Wight
-Dorstenia infundibuliformis Lodd. = Dorstenia brasiliensis Lam.[74]
-Dorstenia intermedia Engl. = Dorstenia mannii var. manii Hook. f.[75]
+Dorstenia infundibuliformis Lodd. = Dorstenia brasiliensis Lam.
+Dorstenia intermedia Engl. = Dorstenia mannii var. manii Hook. f.
 Dorstenia involuta Hijman &amp; C.C. Berg
-Dorstenia jabassensis Engl. = Dorstenia ciliata Engl.[76]
+Dorstenia jabassensis Engl. = Dorstenia ciliata Engl.
 Dorstenia jamaicensis Britton
 Dorstenia kameruniana Engl.
-Dorstenia katangensis De Wild. = Dorstenia benguellensis Welw.[77]
-Dorstenia katubensis De Wild. = Dorstenia benguellensis Welw.[78]
+Dorstenia katangensis De Wild. = Dorstenia benguellensis Welw.
+Dorstenia katubensis De Wild. = Dorstenia benguellensis Welw.
 Dorstenia klaineana Pierre ex Heckel &amp; Schlagd.
-Dorstenia klainei Heckel = Dorstenia psilurus var. scabra Bureau[79]
-Dorstenia kribiensis Engl. = Dorstenia mannii var. alternans (Engl.) Hijman[80]
-Dorstenia kyimbilaensis De Wild. = Dorstenia schliebenii Mildbr.[81]
-Dorstenia lactifera De Wild. = Dorstenia benguellensis Welw.[82]
-Dorstenia lagoensis Bureau = Dorstenia bowmaniana Baker[83]
-Dorstenia laikipiensis Rendle = Dorstenia tayloriana var. laikipiensis (Rendle) Hijman[84]
+Dorstenia klainei Heckel = Dorstenia psilurus var. scabra Bureau
+Dorstenia kribiensis Engl. = Dorstenia mannii var. alternans (Engl.) Hijman
+Dorstenia kyimbilaensis De Wild. = Dorstenia schliebenii Mildbr.
+Dorstenia lactifera De Wild. = Dorstenia benguellensis Welw.
+Dorstenia lagoensis Bureau = Dorstenia bowmaniana Baker
+Dorstenia laikipiensis Rendle = Dorstenia tayloriana var. laikipiensis (Rendle) Hijman
 Dorstenia lanei Howard &amp; Briggs
-Dorstenia latibracteata Engl. = Dorstenia warneckei Engl.[85]
-Dorstenia laurentii De Wild. = Dorstenia zenkeri Engl.[86]
-Dorstenia ledermannii Engl. = Dorstenia turbinata Engl.[87]
+Dorstenia latibracteata Engl. = Dorstenia warneckei Engl.
+Dorstenia laurentii De Wild. = Dorstenia zenkeri Engl.
+Dorstenia ledermannii Engl. = Dorstenia turbinata Engl.
 Dorstenia letestui Pellegr.
-Dorstenia librevillensis De Wild. = Dorstenia poinsettiifolia var. librevillensis (De Wild.) Hijman &amp; C.C. Berg[88]
-Dorstenia liebuschiana Engl. = Dorstenia goetzei Engl.[89]
+Dorstenia librevillensis De Wild. = Dorstenia poinsettiifolia var. librevillensis (De Wild.) Hijman &amp; C.C. Berg
+Dorstenia liebuschiana Engl. = Dorstenia goetzei Engl.
 Dorstenia lindeniana Bureau
-Dorstenia longicauda Engl. = Dorstenia poinsettiifolia var. longicauda (Engl.) Hijman &amp; C.C. Berg[90]
-Dorstenia longifolia Moric. = Dorstenia elata Hook.[91]
-Dorstenia longipedunculata De Wild. = Dorstenia buchananii var. longepedunculata Rendle[92]
+Dorstenia longicauda Engl. = Dorstenia poinsettiifolia var. longicauda (Engl.) Hijman &amp; C.C. Berg
+Dorstenia longifolia Moric. = Dorstenia elata Hook.
+Dorstenia longipedunculata De Wild. = Dorstenia buchananii var. longepedunculata Rendle
 Dorstenia longipes Mart. ex Bureau
-Dorstenia lotziana Engl. = Dorstenia poinsettiifolia var. angusta (Engl.) Hijman &amp; C.C. Berg[93]
-Dorstenia lucida G. Forst. = Procris pedunculata var. pedunculata (J.R. Forst. &amp; G. Forst.) Wedd.[94]
-Dorstenia lujae De Wild. = Dorstenia harmsiana var. harmsiana Engl. [95]
-Dorstenia lukafuensis De Wild. = Dorstenia psilurus var. psilurus [96]
-Dorstenia maculata Lem. = Dorstenia contrajerva L.[97]
-Dorstenia mandiocana Fisch. &amp; C.A. Mey. = Dorstenia arifolia Lam.[98]
+Dorstenia lotziana Engl. = Dorstenia poinsettiifolia var. angusta (Engl.) Hijman &amp; C.C. Berg
+Dorstenia lucida G. Forst. = Procris pedunculata var. pedunculata (J.R. Forst. &amp; G. Forst.) Wedd.
+Dorstenia lujae De Wild. = Dorstenia harmsiana var. harmsiana Engl. 
+Dorstenia lukafuensis De Wild. = Dorstenia psilurus var. psilurus 
+Dorstenia maculata Lem. = Dorstenia contrajerva L.
+Dorstenia mandiocana Fisch. &amp; C.A. Mey. = Dorstenia arifolia Lam.
 Dorstenia mandioccana Fisch. &amp; C.A. Mey.
 Dorstenia mannii Hook. f.
-Dorstenia maoungouensis De Wild. = Dorstenia hildebrandtii var. hildebrandtii Engl. [99]
-Dorstenia marambensis Peter = Dorstenia hildebrandtii var. hildebrandtii Engl.[100]
-Dorstenia marginata Urb. &amp; Ekman = Dorstenia fawcettii Urb.[101]
+Dorstenia maoungouensis De Wild. = Dorstenia hildebrandtii var. hildebrandtii Engl. 
+Dorstenia marambensis Peter = Dorstenia hildebrandtii var. hildebrandtii Engl.
+Dorstenia marginata Urb. &amp; Ekman = Dorstenia fawcettii Urb.
 Dorstenia mariae Carauta, J.M. Albuq. &amp; R.M. Castro
-Dorstenia maris C. Valente &amp; Carauta = Dorstenia arifolia Lam.[102]
-Dorstenia martiana Miq. = Dorstenia bahiensis Fisch. &amp; C.A. Mey.[103]
-Dorstenia massonii Bureau = Dorstenia psilurus var. scabra Bureau[104]
-Dorstenia mexicana Benth. = Dorstenia drakena L.[105]
+Dorstenia maris C. Valente &amp; Carauta = Dorstenia arifolia Lam.
+Dorstenia martiana Miq. = Dorstenia bahiensis Fisch. &amp; C.A. Mey.
+Dorstenia massonii Bureau = Dorstenia psilurus var. scabra Bureau
+Dorstenia mexicana Benth. = Dorstenia drakena L.
 Dorstenia milaneziana Carauta, C. Valente &amp; Sucre
-Dorstenia mildbraediana Peter = Dorstenia benguellensis Welw.[106]
-Dorstenia minor Fisch. &amp; C.A. Mey. = Dorstenia hirta Desv.[107]
-Dorstenia mirabilis R.E. Fr. = Dorstenia benguellensis Welw.[108]
-Dorstenia mogandjensis De Wild. = Dorstenia zenkeri Engl.[109]
-Dorstenia montana Herzog = Dorstenia brasiliensis Lam.[110]
-Dorstenia montevidensis Miq. = Dorstenia brasiliensis Lam.[111]
-Dorstenia morifolia Fisch. &amp; C.A. Mey. = Dorstenia cayapia subsp. vitifolia (Gardner) C.C. Berg[112]
-Dorstenia multiradiata Engl. = Dorstenia barteri var. multiradiata (Engl.) Hijman &amp; C.C. Berg[113]
-Dorstenia multisquamae Urb. = Dorstenia erythrandra C. Wright ex Griseb.[114]
-Dorstenia mundamensis Engl. = Dorstenia mannii var. mungensis (Engl.) Hijman[115]
-Dorstenia mungensis Engl. = Dorstenia mannii var. mungensis (Engl.) Hijman[116]
-Dorstenia nervosa Desv. = Dorstenia urceolata Schott[117]
-Dorstenia nipensis Urb. &amp; Ekman = Dorstenia erythrandra C. Wright ex Griseb.[118]
-Dorstenia nummularia Urb. &amp; Ekman = Dorstenia dinklagei var. brieyi (De Wild.) Hijman[119]
+Dorstenia mildbraediana Peter = Dorstenia benguellensis Welw.
+Dorstenia minor Fisch. &amp; C.A. Mey. = Dorstenia hirta Desv.
+Dorstenia mirabilis R.E. Fr. = Dorstenia benguellensis Welw.
+Dorstenia mogandjensis De Wild. = Dorstenia zenkeri Engl.
+Dorstenia montana Herzog = Dorstenia brasiliensis Lam.
+Dorstenia montevidensis Miq. = Dorstenia brasiliensis Lam.
+Dorstenia morifolia Fisch. &amp; C.A. Mey. = Dorstenia cayapia subsp. vitifolia (Gardner) C.C. Berg
+Dorstenia multiradiata Engl. = Dorstenia barteri var. multiradiata (Engl.) Hijman &amp; C.C. Berg
+Dorstenia multisquamae Urb. = Dorstenia erythrandra C. Wright ex Griseb.
+Dorstenia mundamensis Engl. = Dorstenia mannii var. mungensis (Engl.) Hijman
+Dorstenia mungensis Engl. = Dorstenia mannii var. mungensis (Engl.) Hijman
+Dorstenia nervosa Desv. = Dorstenia urceolata Schott
+Dorstenia nipensis Urb. &amp; Ekman = Dorstenia erythrandra C. Wright ex Griseb.
+Dorstenia nummularia Urb. &amp; Ekman = Dorstenia dinklagei var. brieyi (De Wild.) Hijman
 Dorstenia nyangensis Pellegr.
 Dorstenia nyungwensis Troupin
-Dorstenia obanensis Hutch. &amp; Dalziel = Dorstenia turbinata Engl.[120]
-Dorstenia oblonga Compère = Dorstenia convexa var. oblonga (Compère) Hijman[121]
-Dorstenia obovata A. Rich. = Dorstenia foetida Schweinf.[122]
-Dorstenia obtusibracteata Engl. = Dorstenia tenera var. obtusibracteata (Engl.) Hijman &amp; C.C. Berg[123]
+Dorstenia obanensis Hutch. &amp; Dalziel = Dorstenia turbinata Engl.
+Dorstenia oblonga Compère = Dorstenia convexa var. oblonga (Compère) Hijman
+Dorstenia obovata A. Rich. = Dorstenia foetida Schweinf.
+Dorstenia obtusibracteata Engl. = Dorstenia tenera var. obtusibracteata (Engl.) Hijman &amp; C.C. Berg
 Dorstenia oligogyna (Pellegr.) C.C. Berg
-Dorstenia ophiocoma K. Schum. &amp; Engl. = Dorstenia mannii var. manii Hook. f.[124]
-Dorstenia ophiocomoides Engl. = Dorstenia mannii var. mungensis (Engl.) Hijman[125]
-Dorstenia ophioglossoides Hochst. ex Bureau = Dorstenia barnimiana var. barnimiana Schweinf.[126]
+Dorstenia ophiocoma K. Schum. &amp; Engl. = Dorstenia mannii var. manii Hook. f.
+Dorstenia ophiocomoides Engl. = Dorstenia mannii var. mungensis (Engl.) Hijman
+Dorstenia ophioglossoides Hochst. ex Bureau = Dorstenia barnimiana var. barnimiana Schweinf.
 Dorstenia opifera Mart.
-Dorstenia orientalis De Wild. = Dorstenia alta Engl.[127]
-Dorstenia pachecoleoneana Machado = Dorstenia cayapia Vell.[128]
-Dorstenia palmata Willd. ex Schult. = Dorstenia contrajerva L.[129]
-Dorstenia palmata Engl. = Dorstenia barnimiana var. barnimiana Schweinf.[130]
+Dorstenia orientalis De Wild. = Dorstenia alta Engl.
+Dorstenia pachecoleoneana Machado = Dorstenia cayapia Vell.
+Dorstenia palmata Willd. ex Schult. = Dorstenia contrajerva L.
+Dorstenia palmata Engl. = Dorstenia barnimiana var. barnimiana Schweinf.
 Dorstenia palmata Pohl ex Miq.
 Dorstenia panamensis C.C. Berg
-Dorstenia papillosa Hauman = Dorstenia benguellensis Welw.[131]
+Dorstenia papillosa Hauman = Dorstenia benguellensis Welw.
 Dorstenia paradoxa Bureau
-Dorstenia paraguariensis (Hassl.) Carauta = Dorstenia cayapia Vell.[132]
+Dorstenia paraguariensis (Hassl.) Carauta = Dorstenia cayapia Vell.
 Dorstenia paucibracteata De Wild.
-Dorstenia paucidentata Rendle = Dorstenia tenera var. tenera Bureau[133]
-Dorstenia pectinata Peter = Dorstenia tayloriana var. laikipiensis (Rendle) Hijman[134]
-Dorstenia peltata Spreng. = Dorstenia barnimiana var. tropaeolifolia (Schweinf.) Rendle[135]
-Dorstenia peltata Fisch. &amp; C.A. Mey. = Dorstenia arifolia Lam.[136]
-Dorstenia penduflora Peter = Dorstenia brownii Rendle[137]
-Dorstenia pernambucana Arruda = Dorstenia brasiliensis Lam.[138]
+Dorstenia paucidentata Rendle = Dorstenia tenera var. tenera Bureau
+Dorstenia pectinata Peter = Dorstenia tayloriana var. laikipiensis (Rendle) Hijman
+Dorstenia peltata Spreng. = Dorstenia barnimiana var. tropaeolifolia (Schweinf.) Rendle
+Dorstenia peltata Fisch. &amp; C.A. Mey. = Dorstenia arifolia Lam.
+Dorstenia penduflora Peter = Dorstenia brownii Rendle
+Dorstenia pernambucana Arruda = Dorstenia brasiliensis Lam.
 Dorstenia peruviana C.C. Berg
 Dorstenia petraea C. Wright ex Griseb.
-Dorstenia phillipsiae Hook. f. = Dorstenia foetida Schweinf.[139]
+Dorstenia phillipsiae Hook. f. = Dorstenia foetida Schweinf.
 Dorstenia picta Bureau
-Dorstenia pierrei De Wild. = Dorstenia poinsettiifolia var. librevillensis (De Wild.) Hijman &amp; C.C. Berg[140]
-Dorstenia piscaria Hutch. &amp; Dalziel = Dorstenia barteri var. subtriangularis (Engl.) Hijman &amp; C.C. Berg[141]
-Dorstenia piscicelliana Buscal. &amp; Muschl. = Dorstenia benguellensis Welw.[142]
+Dorstenia pierrei De Wild. = Dorstenia poinsettiifolia var. librevillensis (De Wild.) Hijman &amp; C.C. Berg
+Dorstenia piscaria Hutch. &amp; Dalziel = Dorstenia barteri var. subtriangularis (Engl.) Hijman &amp; C.C. Berg
+Dorstenia piscicelliana Buscal. &amp; Muschl. = Dorstenia benguellensis Welw.
 Dorstenia placentoides Comm. ex Lam.
-Dorstenia plumieriifolia Fisch. &amp; C.A. Mey. = Dorstenia elata Hook.[143]
-Dorstenia poggei Engl. = Dorstenia benguellensis Welw.[144]
-Dorstenia poinsettiifolia Engl. = Dorstenia poinsettiifolia var. poinsettiifolia [145]
-Dorstenia polyactis Peter = Dorstenia hildebrandtii var. schlechteri (Engl.) Hijman[146]
-Dorstenia preussii Engl. = Dorstenia cuspidata var. preussii (Engl.) Hijman[147]
+Dorstenia plumieriifolia Fisch. &amp; C.A. Mey. = Dorstenia elata Hook.
+Dorstenia poggei Engl. = Dorstenia benguellensis Welw.
+Dorstenia poinsettiifolia Engl. = Dorstenia poinsettiifolia var. poinsettiifolia 
+Dorstenia polyactis Peter = Dorstenia hildebrandtii var. schlechteri (Engl.) Hijman
+Dorstenia preussii Engl. = Dorstenia cuspidata var. preussii (Engl.) Hijman
 Dorstenia prorepens Engl.
-Dorstenia pseudo-opifera Hassl. = Dorstenia cayapia Vell.[148]
-Dorstenia psiluroides Engl. = Dorstenia psilurus var. psilurus [149]
+Dorstenia pseudo-opifera Hassl. = Dorstenia cayapia Vell.
+Dorstenia psiluroides Engl. = Dorstenia psilurus var. psilurus 
 Dorstenia psilurus Welw.
 Dorstenia pubescens Blanco
-Dorstenia quadrata Desv. = Dorstenia arifolia Lam.[150]
-Dorstenia quadrangularis Stokes = Dorstenia contrajerva L.[151]
-Dorstenia quarrei De Wild. = Dorstenia cuspidata var. cuspidata Hochst. ex A. Rich.[152]
-Dorstenia quercifolia R.E. Fr. = Dorstenia hildebrandtii var. schlechteri (Engl.) Hijman[153]
-Dorstenia radiata Lam. = Dorstenia foetida Schweinf.[154]
+Dorstenia quadrata Desv. = Dorstenia arifolia Lam.
+Dorstenia quadrangularis Stokes = Dorstenia contrajerva L.
+Dorstenia quarrei De Wild. = Dorstenia cuspidata var. cuspidata Hochst. ex A. Rich.
+Dorstenia quercifolia R.E. Fr. = Dorstenia hildebrandtii var. schlechteri (Engl.) Hijman
+Dorstenia radiata Lam. = Dorstenia foetida Schweinf.
 Dorstenia ramosa (Desv.) Carauta, C. Valente &amp; Sucre
-Dorstenia reducta De Wild. = Dorstenia dinklagei var. reducta (De Wild.) Hijman[155]
+Dorstenia reducta De Wild. = Dorstenia dinklagei var. reducta (De Wild.) Hijman
 Dorstenia reniformis Pohl ex Miq.
 Dorstenia renneyi Airy Shaw &amp; N.P. Taylor
 Dorstenia renulata C. Wright ex Griseb.
-Dorstenia rhodesiana R.E. Fr. = Dorstenia benguellensis Welw.[156]
-Dorstenia rhomboidea Peter = Dorstenia hildebrandtii var. hildebrandtii Engl.[157]
-Dorstenia riedeliana  Fisch. &amp; C.A. Mey. = Dorstenia arifolia Lam.[158]
+Dorstenia rhodesiana R.E. Fr. = Dorstenia benguellensis Welw.
+Dorstenia rhomboidea Peter = Dorstenia hildebrandtii var. hildebrandtii Engl.
+Dorstenia riedeliana  Fisch. &amp; C.A. Mey. = Dorstenia arifolia Lam.
 Dorstenia richardii Baill.
 Dorstenia rocana Britton
 Dorstenia roigii Britton
 Dorstenia romaniucii A. Ferreira &amp; M.D.M. Vianna
-Dorstenia rosenii R.E. Fr. = Dorstenia benguellensis Welw.[159]
-Dorstenia ruahensis Engl. = Dorstenia buchananii var. longepedunculata Rendle[160]
-Dorstenia rugosa Banks &amp; Sol. ex A. Cunn. = Dorstenia tayloriana var. laikipiensis (Rendle) Hijman[161]
-Dorstenia ruwenzoriensis De Wild. = Dorstenia brownii Rendle[162]
-Dorstenia sabanensis Cuatrec. = Dorstenia brasiliensis Lam.[163]
-Dorstenia sacleuxi De Wild. = Dorstenia warneckei Engl.[164]
-Dorstenia saxicola Engl. = Dorstenia cuspidata var. humblotiana (Baill.) Leandri[165]
-Dorstenia scabra (Bureau) Engl. = Dorstenia psilurus var. scabra Bureau[166]
+Dorstenia rosenii R.E. Fr. = Dorstenia benguellensis Welw.
+Dorstenia ruahensis Engl. = Dorstenia buchananii var. longepedunculata Rendle
+Dorstenia rugosa Banks &amp; Sol. ex A. Cunn. = Dorstenia tayloriana var. laikipiensis (Rendle) Hijman
+Dorstenia ruwenzoriensis De Wild. = Dorstenia brownii Rendle
+Dorstenia sabanensis Cuatrec. = Dorstenia brasiliensis Lam.
+Dorstenia sacleuxi De Wild. = Dorstenia warneckei Engl.
+Dorstenia saxicola Engl. = Dorstenia cuspidata var. humblotiana (Baill.) Leandri
+Dorstenia scabra (Bureau) Engl. = Dorstenia psilurus var. scabra Bureau
 Dorstenia scaphigera Bureau
-Dorstenia schlechteri Engl. = Dorstenia hildebrandtii var. schlechteri (Engl.) Hijman[167]
+Dorstenia schlechteri Engl. = Dorstenia hildebrandtii var. schlechteri (Engl.) Hijman
 Dorstenia schliebenii Mildbr.
-Dorstenia schulzii Carauta, C. Valente &amp; Dunn de Araujo = Dorstenia brasiliensis Lam.[168]
-Dorstenia seretii De Wild. = Dorstenia dinklagei var. brieyi (De Wild.) Hijman[169]
-Dorstenia sessilis R.E. Fr. = Dorstenia benguellensis Welw.[170]
+Dorstenia schulzii Carauta, C. Valente &amp; Dunn de Araujo = Dorstenia brasiliensis Lam.
+Dorstenia seretii De Wild. = Dorstenia dinklagei var. brieyi (De Wild.) Hijman
+Dorstenia sessilis R.E. Fr. = Dorstenia benguellensis Welw.
 Dorstenia setosa Moric.
-Dorstenia smythei Sprague = Dorstenia turbinata Engl.[171]
+Dorstenia smythei Sprague = Dorstenia turbinata Engl.
 Dorstenia socotrana A.G. Mill.
 Dorstenia soerensenii Friis
-Dorstenia solheidii De Wild. = Dorstenia zenkeri Engl.[172]
-Dorstenia spathulibracteata Engl. = Dorstenia turbinata Engl.[173]
-Dorstenia staudtii Engl. = Dorstenia poinsettiifolia var. staudtii (Engl.) Hijman &amp; C.C. Berg[174]
+Dorstenia solheidii De Wild. = Dorstenia zenkeri Engl.
+Dorstenia spathulibracteata Engl. = Dorstenia turbinata Engl.
+Dorstenia staudtii Engl. = Dorstenia poinsettiifolia var. staudtii (Engl.) Hijman &amp; C.C. Berg
 Dorstenia stellaris Al. Santos &amp; Romaniuc
-Dorstenia stenophylla R.E. Fr. = Dorstenia benguellensis Welw.[175]
-Dorstenia stipitata De Wild. = Dorstenia benguellensis Welw.[176]
-Dorstenia stipulata Rendle = Dorstenia mannii var. stipulata (Rendle) Hijman[177]
-Dorstenia stolzii Engl. = Dorstenia psilurus var. psilurus [178]
-Dorstenia strangii Carauta = Dorstenia arifolia Lam.[179]
+Dorstenia stenophylla R.E. Fr. = Dorstenia benguellensis Welw.
+Dorstenia stipitata De Wild. = Dorstenia benguellensis Welw.
+Dorstenia stipulata Rendle = Dorstenia mannii var. stipulata (Rendle) Hijman
+Dorstenia stolzii Engl. = Dorstenia psilurus var. psilurus 
+Dorstenia strangii Carauta = Dorstenia arifolia Lam.
 Dorstenia subdentata Hijman &amp; C.C. Berg
-Dorstenia subrhombiformis Engl. = Dorstenia poinsettiifolia var. staudtii (Engl.) Hijman &amp; C.C. Berg[180]
-Dorstenia subtriangularis Engl. = Dorstenia barteri var. subtriangularis (Engl.) Hijman &amp; C.C. Berg[181]
-Dorstenia sucrei Carauta = Dorstenia elata Hook.[182]
-Dorstenia sychinium Steud. = Dorstenia ramosa (Desv.) Carauta, C. Valente &amp; Sucre[183]
-Dorstenia talbotii Rendle = Dorstenia lujae var. lujae De Wild.[184]
-Dorstenia tanneriana Peter = Dorstenia hildebrandtii var. hildebrandtii Engl.[185]
-Dorstenia tayloriana Rendle = Dorstenia barnimiana var. barnimiana Schweinf.[186]
+Dorstenia subrhombiformis Engl. = Dorstenia poinsettiifolia var. staudtii (Engl.) Hijman &amp; C.C. Berg
+Dorstenia subtriangularis Engl. = Dorstenia barteri var. subtriangularis (Engl.) Hijman &amp; C.C. Berg
+Dorstenia sucrei Carauta = Dorstenia elata Hook.
+Dorstenia sychinium Steud. = Dorstenia ramosa (Desv.) Carauta, C. Valente &amp; Sucre
+Dorstenia talbotii Rendle = Dorstenia lujae var. lujae De Wild.
+Dorstenia tanneriana Peter = Dorstenia hildebrandtii var. hildebrandtii Engl.
+Dorstenia tayloriana Rendle = Dorstenia barnimiana var. barnimiana Schweinf.
 Dorstenia telekii Schweinf. ex Engl.
 Dorstenia tenera Bureau
-Dorstenia tentaculata Fisch. &amp; C.A. Mey. = Dorstenia arifolia Lam.[187]
-Dorstenia tenuifolia Engl. = Dorstenia psilurus var. scabra Bureau[188]
+Dorstenia tentaculata Fisch. &amp; C.A. Mey. = Dorstenia arifolia Lam.
+Dorstenia tenuifolia Engl. = Dorstenia psilurus var. scabra Bureau
 Dorstenia tenuiradiata Mildbr.
 Dorstenia tenuis Bonpl. ex Bureau
 Dorstenia tessmannii Engl.
-Dorstenia tetractis Peter = Dorstenia cuspidata var. cuspidata Hochst. ex A. Rich.[189]
+Dorstenia tetractis Peter = Dorstenia cuspidata var. cuspidata Hochst. ex A. Rich.
 Dorstenia thikaensis Hijman
-Dorstenia tomentosa Fisch. &amp; C.A. Mey. = Dorstenia brasiliensis Lam.[190]
-Dorstenia tricolor Urb. &amp; Ekman = Dorstenia rocana Britton[191]
-Dorstenia triternata Chiov. = Dorstenia barnimiana var. barnimiana Schweinf.[192]
-Dorstenia tropaeolifolia (Schweinf.) Bureau = Dorstenia barnimiana var. tropaeolifolia (Schweinf.) Rendle[193]
+Dorstenia tomentosa Fisch. &amp; C.A. Mey. = Dorstenia brasiliensis Lam.
+Dorstenia tricolor Urb. &amp; Ekman = Dorstenia rocana Britton
+Dorstenia triternata Chiov. = Dorstenia barnimiana var. barnimiana Schweinf.
+Dorstenia tropaeolifolia (Schweinf.) Bureau = Dorstenia barnimiana var. tropaeolifolia (Schweinf.) Rendle
 Dorstenia tuberosa C. Wright ex Griseb.
-Dorstenia tubicina Ruiz &amp; Pav. = Dorstenia brasiliensis Lam.[194]
+Dorstenia tubicina Ruiz &amp; Pav. = Dorstenia brasiliensis Lam.
 Dorstenia turbinata Engl.
 Dorstenia turnerifolia Fisch. &amp; C.A. Mey.
 Dorstenia ulugurensis Engl.
 Dorstenia umbricola A.C. Sm.
-Dorstenia unicaudata Engl. = Dorstenia buchananii var. buchananii Engl.[195]
-Dorstenia unyikae Engl. = Dorstenia cuspidata var. cuspidata Hochst. ex A. Rich.[196]
+Dorstenia unicaudata Engl. = Dorstenia buchananii var. buchananii Engl.
+Dorstenia unyikae Engl. = Dorstenia cuspidata var. cuspidata Hochst. ex A. Rich.
 Dorstenia urceolata Schott
-Dorstenia usambarensis Engl. = Dorstenia holstii var. holstii Engl.[197]
+Dorstenia usambarensis Engl. = Dorstenia holstii var. holstii Engl.
 Dorstenia uxpanapana C.C. Berg &amp; T. Wendt
-Dorstenia variegata Engl. = Dorstenia picta Bureau[198]
-Dorstenia varroniifolia Fisch. &amp; C.A. Mey. = Dorstenia hirta Desv.[199]
+Dorstenia variegata Engl. = Dorstenia picta Bureau
+Dorstenia varroniifolia Fisch. &amp; C.A. Mey. = Dorstenia hirta Desv.
 Dorstenia variifolia Engl.
-Dorstenia vellozoana Lem. = Dorstenia ramosa (Desv.) Carauta, C. Valente &amp; Sucre[200]
-Dorstenia verdickii De Wild. = Dorstenia benguellensis Welw.[201]
-Dorstenia vermoesenii De Wild. = Dorstenia mannii var. manii Hook. f.[202]
+Dorstenia vellozoana Lem. = Dorstenia ramosa (Desv.) Carauta, C. Valente &amp; Sucre
+Dorstenia verdickii De Wild. = Dorstenia benguellensis Welw.
+Dorstenia vermoesenii De Wild. = Dorstenia mannii var. manii Hook. f.
 Dorstenia vilella Paiva
-Dorstenia vitifolia Gardner = Dorstenia cayapia Vell.[203]
+Dorstenia vitifolia Gardner = Dorstenia cayapia Vell.
 Dorstenia vivipara Welw.
 Dorstenia volkensii Engl.
-Dorstenia walleri Hemsl. = Dorstenia cuspidata var. cuspidata Hochst. ex A. Rich.[204]
+Dorstenia walleri Hemsl. = Dorstenia cuspidata var. cuspidata Hochst. ex A. Rich.
 Dorstenia warneckei Engl.
-Dorstenia wellmannii Engl. = Dorstenia benguellensis Welw.[205]
+Dorstenia wellmannii Engl. = Dorstenia benguellensis Welw.
 Dorstenia yambuyaensis De Wild.
-Dorstenia yangambiensis J. Léonard = Dorstenia poinsettiifolia var. poinsettiifolia Engl.[206]
+Dorstenia yangambiensis J. Léonard = Dorstenia poinsettiifolia var. poinsettiifolia Engl.
 Dorstenia zambesiaca Hijman
 Dorstenia zanzibarica Oliv.
 Dorstenia zenkeri Engl.</t>
